--- a/data_input/analytics/MD_Dictionary.xlsx
+++ b/data_input/analytics/MD_Dictionary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>Ми-8Т</t>
   </si>
@@ -152,9 +152,6 @@
     <t>0b00000010</t>
   </si>
   <si>
-    <t>Лизинговые ограничения</t>
-  </si>
-  <si>
     <t>Поле</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
   </si>
   <si>
     <t>trigger_interval - limits:3</t>
-  </si>
-  <si>
-    <t>lease_restricted - limits:4</t>
   </si>
   <si>
     <t>0b00000110</t>
@@ -537,95 +531,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -933,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -948,86 +942,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>44</v>
+      <c r="B5" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>43</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="20"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="5" t="s">
         <v>39</v>
       </c>
@@ -1036,25 +1030,25 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="15"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>44</v>
+      <c r="B8" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>38</v>
@@ -1064,250 +1058,219 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="1:5" ht="14.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="33"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="33"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="33"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="33"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="33"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="34"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="24"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="24"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="5">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="24"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="5">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="24"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="5">
         <v>5</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="25"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="5">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="5">
-        <v>3</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="14"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="5">
-        <v>4</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="14"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="5">
-        <v>5</v>
-      </c>
-      <c r="E25" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="15"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="6">
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="25"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="6">
         <v>6</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="B21:B26"/>
+  <mergeCells count="15">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="B19:B24"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="C12:C18"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
